--- a/biology/Médecine/Luminette/Luminette.xlsx
+++ b/biology/Médecine/Luminette/Luminette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La luminette est une paire de lunettes servant à la luminothérapie.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite de l'échec de la commercialisation d'un casque de luminothérapie dans les années 1990, est développé «  un système moins encombrant et éclairant mieux la rétine, sans toutefois aveugler ». Le projet ECLAT (2001-2003), financé par la Région wallonne, donne naissance à Lucimed, situé à Villers-le-Bouillet. L'entreprise est un, spin-off de l’université de Liège (Belgique) et aujourd’hui distributrice de la Luminette[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'échec de la commercialisation d'un casque de luminothérapie dans les années 1990, est développé «  un système moins encombrant et éclairant mieux la rétine, sans toutefois aveugler ». Le projet ECLAT (2001-2003), financé par la Région wallonne, donne naissance à Lucimed, situé à Villers-le-Bouillet. L'entreprise est un, spin-off de l’université de Liège (Belgique) et aujourd’hui distributrice de la Luminette.
 </t>
         </is>
       </c>
@@ -544,12 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description
-La luminette est une paire de lunettes qui peut se poser par dessus d’éventuelles lunettes de vision ou lentilles. Une batterie rechargeable est logée dans une de ses branches[2].
-Composition
-Une lentille diffractive est placée sur chaque verre, qui permet la concentration de faisceaux lumineux dans la moitié inférieure de la rétine, que soit l’angle d’inclinaison de l’œil. La lumière touchant la rétine régule les rythmes circadiens. Quatre LED produisant cette lumière sont placées sur l’extrémité supérieure de chaque verre, en dehors du champ de vision. Elles émettent de la lumière bleue à 470 nanomètres.
-Production
-Il est produit en wallonie[3]. L’assemblage est réalisé dans un atelier à Eeklo (région flamande).
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La luminette est une paire de lunettes qui peut se poser par dessus d’éventuelles lunettes de vision ou lentilles. Une batterie rechargeable est logée dans une de ses branches.
 </t>
         </is>
       </c>
@@ -575,10 +590,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une lentille diffractive est placée sur chaque verre, qui permet la concentration de faisceaux lumineux dans la moitié inférieure de la rétine, que soit l’angle d’inclinaison de l’œil. La lumière touchant la rétine régule les rythmes circadiens. Quatre LED produisant cette lumière sont placées sur l’extrémité supérieure de chaque verre, en dehors du champ de vision. Elles émettent de la lumière bleue à 470 nanomètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Luminette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luminette</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est produit en wallonie. L’assemblage est réalisé dans un atelier à Eeklo (région flamande).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Luminette</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luminette</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">De possibles lésions ou troubles de la vision peuvent advenir chez les personnes souffrant de problèmes ophtalmologiques, ou sensibles à la lumière dans son spectre visible, ou atteintes de maladies rares telles les porphyries. En portant la luminette, il est déconseillé de conduire ou de travailler avec une machine nécessitant un large champ visuel et une attention soutenue. Certains médicaments, comme les antibiotiques tétracyclines, peuvent créer une sensibilité anormale à la lumière[réf. nécessaire].
 </t>
